--- a/pavyzdys.xlsx
+++ b/pavyzdys.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">KlientuSarasoRezultatas</t>
   </si>
   <si>
-    <t xml:space="preserve">//klientu_saraso_rezultatas</t>
+    <t xml:space="preserve">/klientu_saraso_rezultatas</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Asmenys</t>
   </si>
   <si>
-    <t xml:space="preserve">//asmenys</t>
+    <t xml:space="preserve">/asmenys</t>
   </si>
   <si>
     <t xml:space="preserve">puslapis</t>
@@ -124,13 +124,13 @@
     <t xml:space="preserve">KlientuSarasoRezultatasAsmenys</t>
   </si>
   <si>
-    <t xml:space="preserve">//klientu_saraso_rezultatas/asmenys</t>
+    <t xml:space="preserve">/klientu_saraso_rezultatas/asmenys</t>
   </si>
   <si>
     <t xml:space="preserve">Įvairūs duomenys</t>
   </si>
   <si>
-    <t xml:space="preserve">//asmuo</t>
+    <t xml:space="preserve">/asmuo</t>
   </si>
   <si>
     <t xml:space="preserve">Klaidos atveju - klaidos pranešimas</t>
@@ -164,6 +164,24 @@
   </si>
   <si>
     <t xml:space="preserve">klaida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/parcels/parcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parcel_unique_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcel1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign_of_change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum</t>
   </si>
 </sst>
 </file>
@@ -237,8 +255,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,386 +391,435 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="41.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="30.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="33.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="41.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="30.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="O14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="O15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M36" s="0" t="s">
+      <c r="M36" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I50" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
